--- a/document/20210222_naver_change.xlsx
+++ b/document/20210222_naver_change.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9566BABB-55AD-4929-A040-4D2D21413A44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57880ABE-4708-4E07-8C42-174715BF6104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" xr2:uid="{8229BBF3-B830-44C4-BA1F-FD4C8A1F442F}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -154,8 +162,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,101 +483,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F1C33C-E47F-4CF3-96AC-EFFCC93E9AE4}">
-  <dimension ref="B2:V3"/>
+  <dimension ref="B2:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="N3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
         <v>200</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>200</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>250</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>250</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>300</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>3150</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <f>$G$11*H11+3000</f>
+        <v>25050</v>
+      </c>
+      <c r="J11" s="1">
+        <v>24500</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11-J11</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" ref="I12:I14" si="0">$G$11*H12+3000</f>
+        <v>28200</v>
+      </c>
+      <c r="J12" s="1">
+        <v>27200</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12:K14" si="1">I12-J12</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H13" s="1">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>31350</v>
+      </c>
+      <c r="J13" s="1">
+        <v>29900</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>34500</v>
+      </c>
+      <c r="J14" s="1">
+        <v>32600</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>1900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>